--- a/MarsFramework/ExcelData/TestDataShareSkill.xlsx
+++ b/MarsFramework/ExcelData/TestDataShareSkill.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gurle\Internship_MVP\Task-2\marsframework-master\MarsFramework\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gurle\Internship_MVP\Mars Standard Tasks\marsframework-master\MarsFramework\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0E21248-4FF8-4D4D-9F1E-0CAE4AAADE55}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{325A8457-7F1E-49BE-8753-2F56453DE915}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="41">
   <si>
     <t>Url</t>
   </si>
@@ -136,6 +136,15 @@
   </si>
   <si>
     <t>Mon/Wed</t>
+  </si>
+  <si>
+    <t>New Password</t>
+  </si>
+  <si>
+    <t>MarsNew@123#</t>
+  </si>
+  <si>
+    <t>Confirm Password</t>
   </si>
 </sst>
 </file>
@@ -146,10 +155,18 @@
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
     <numFmt numFmtId="165" formatCode="hh:mm:ss;@"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -178,17 +195,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -584,10 +604,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -595,9 +615,11 @@
     <col min="1" max="1" width="45.81640625" customWidth="1"/>
     <col min="2" max="2" width="27.54296875" customWidth="1"/>
     <col min="3" max="3" width="27" customWidth="1"/>
+    <col min="4" max="4" width="16.90625" customWidth="1"/>
+    <col min="5" max="5" width="16.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -607,16 +629,28 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>31</v>
       </c>
       <c r="B2" t="s">
         <v>32</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="5" t="s">
         <v>33</v>
+      </c>
+      <c r="D2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -624,9 +658,10 @@
     <hyperlink ref="A2" r:id="rId1" xr:uid="{1B1D9582-6860-429F-9192-B145B87ED32E}"/>
     <hyperlink ref="B2" r:id="rId2" xr:uid="{684880ED-A231-4DD0-B8BE-318AF0767925}"/>
     <hyperlink ref="C2" r:id="rId3" xr:uid="{C9C6AD4B-E800-4AFF-8D6A-BE51EA42B4E5}"/>
+    <hyperlink ref="E2" r:id="rId4" xr:uid="{DEA9F2B1-64D8-4E38-9088-E0AFAF6A5F3C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -635,7 +670,7 @@
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -725,10 +760,10 @@
         <v>27</v>
       </c>
       <c r="H2" s="3">
-        <v>44116</v>
+        <v>44481</v>
       </c>
       <c r="I2" s="2">
-        <v>44147</v>
+        <v>44512</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>37</v>

--- a/MarsFramework/ExcelData/TestDataShareSkill.xlsx
+++ b/MarsFramework/ExcelData/TestDataShareSkill.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gurle\Internship_MVP\Mars Standard Tasks\marsframework-master\MarsFramework\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{325A8457-7F1E-49BE-8753-2F56453DE915}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFBAE50B-D090-4C30-9F37-E1BC9B2078EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="40">
   <si>
     <t>Url</t>
   </si>
@@ -109,9 +109,6 @@
   </si>
   <si>
     <t>Performance Testing</t>
-  </si>
-  <si>
-    <t>Hidden</t>
   </si>
   <si>
     <t>Selectday</t>
@@ -579,19 +576,19 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" t="s">
         <v>34</v>
       </c>
-      <c r="B2" t="s">
-        <v>35</v>
-      </c>
       <c r="C2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" t="s">
         <v>32</v>
       </c>
-      <c r="D2" t="s">
-        <v>33</v>
-      </c>
       <c r="E2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -630,27 +627,27 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" t="s">
         <v>31</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>33</v>
-      </c>
       <c r="D2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -669,8 +666,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -715,7 +712,7 @@
         <v>23</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>24</v>
@@ -754,7 +751,7 @@
         <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G2" t="s">
         <v>27</v>
@@ -766,7 +763,7 @@
         <v>44512</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K2" s="4">
         <v>0.75</v>
@@ -784,7 +781,7 @@
         <v>30</v>
       </c>
       <c r="P2" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
